--- a/11_problems.xlsx
+++ b/11_problems.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ques" sheetId="1" r:id="rId1"/>
+    <sheet name="Category" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
   <si>
     <t xml:space="preserve">search for a range </t>
   </si>
@@ -284,6 +285,195 @@
   </si>
   <si>
     <t xml:space="preserve">product of array exclude itself </t>
+  </si>
+  <si>
+    <t>rectangle ovelap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcard matching </t>
+  </si>
+  <si>
+    <t xml:space="preserve">regular expression macthing </t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>isomorphic strings</t>
+  </si>
+  <si>
+    <t>valid word abbreviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moving average from data stream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">encode and decode strings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">read N characters given read4 II - call multiple times </t>
+  </si>
+  <si>
+    <t>longest absolute file path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer to roman </t>
+  </si>
+  <si>
+    <t>roman to integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the celebrity </t>
+  </si>
+  <si>
+    <t>load balancer(not done, c code available, do it later)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing ranges </t>
+  </si>
+  <si>
+    <t>merge intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert interval </t>
+  </si>
+  <si>
+    <t>first position unique character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique word abbreviation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">find all anagrams in a string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">guess number higher or lower </t>
+  </si>
+  <si>
+    <t>convert BST to greater tree</t>
+  </si>
+  <si>
+    <t>inorder successor in BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary tree upside down </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bianry tree vertical order traversal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">find leaves of binary tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA 9 </t>
+  </si>
+  <si>
+    <t>rectangle overlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k closet points </t>
+  </si>
+  <si>
+    <t xml:space="preserve">window sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">longest palindrome </t>
+  </si>
+  <si>
+    <t>course schedule ii</t>
+  </si>
+  <si>
+    <t>minimum spanning tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high five </t>
+  </si>
+  <si>
+    <t>maximum subtree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closet number in sorted array </t>
+  </si>
+  <si>
+    <t>last position of target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search a 2D matrix  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum number in mountain sequence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">find minimum in rotated sorted array </t>
+  </si>
+  <si>
+    <t>find peak element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search in a big sorted array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first bad version </t>
+  </si>
+  <si>
+    <t>smallest rectangle endosing black pixels</t>
+  </si>
+  <si>
+    <t>rectangle endosing black pixels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary tree preorder traversal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary tree inorder traversal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bianry tree postorder traversal </t>
+  </si>
+  <si>
+    <t>balanced bianry tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lowest common ancestor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary tree maximum path sum ii </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary tree maximum path sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">permutation </t>
+  </si>
+  <si>
+    <t>permutation ii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-queens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">combination sum </t>
+  </si>
+  <si>
+    <t>combination sum ii</t>
+  </si>
+  <si>
+    <t>subsets ii</t>
+  </si>
+  <si>
+    <t>word break ii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">word ladder ii </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search </t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS Search </t>
   </si>
 </sst>
 </file>
@@ -305,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,10 +527,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,9 +1564,448 @@
         <v>85</v>
       </c>
     </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>102</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>103</v>
+      </c>
+      <c r="B107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>104</v>
+      </c>
+      <c r="B108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>105</v>
+      </c>
+      <c r="B109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>106</v>
+      </c>
+      <c r="B110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>107</v>
+      </c>
+      <c r="B111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>108</v>
+      </c>
+      <c r="B112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>109</v>
+      </c>
+      <c r="B113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>110</v>
+      </c>
+      <c r="B115" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>111</v>
+      </c>
+      <c r="B116" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>112</v>
+      </c>
+      <c r="B117" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>113</v>
+      </c>
+      <c r="B118" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>114</v>
+      </c>
+      <c r="B119" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>